--- a/Course_Requirements/Activity Logs&Task Summaries/Jesse/Activity Log SummaryWk9.xlsx
+++ b/Course_Requirements/Activity Logs&Task Summaries/Jesse/Activity Log SummaryWk9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\Documents\GitHub\CSC3600-ICT-Professional-Project\Course_Requirements\Activity Logs&amp;Task Summaries\Jesse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DF392E-7848-423A-B162-4AE42576D632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0668846-FD84-41F0-8D20-5804437B3A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="135" windowWidth="14895" windowHeight="11385" xr2:uid="{2C90FF03-35F6-430D-80AA-644AEA31AD14}"/>
+    <workbookView xWindow="28605" yWindow="735" windowWidth="14565" windowHeight="11385" xr2:uid="{2C90FF03-35F6-430D-80AA-644AEA31AD14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -687,7 +687,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +737,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="13"/>
